--- a/Microplastic_Data_Portal-main/data/Microplastics_DataPortal_Clean_Material.xlsx
+++ b/Microplastic_Data_Portal-main/data/Microplastics_DataPortal_Clean_Material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastic_Data_Portal-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BCF16-544C-F240-9DAF-4AA851EEE14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1648E49-2109-9F45-9257-17D226BF9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="500" windowWidth="10780" windowHeight="11400" xr2:uid="{0662A643-DE80-9A42-9A77-2A553BD46290}"/>
+    <workbookView xWindow="16660" yWindow="500" windowWidth="16940" windowHeight="14920" xr2:uid="{0662A643-DE80-9A42-9A77-2A553BD46290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
